--- a/Timetable/TimeTable.xlsx
+++ b/Timetable/TimeTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="15">
   <si>
     <t>День Недели</t>
   </si>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,23 +688,14 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -719,23 +710,23 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -750,23 +741,23 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
       <c r="B24" t="s">
         <v>6</v>
       </c>
@@ -781,23 +772,23 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>6</v>
       </c>
@@ -808,6 +799,20 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
         <v>8</v>
       </c>
     </row>
